--- a/inspirationalYear70/inspirationalYear70.xlsx
+++ b/inspirationalYear70/inspirationalYear70.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="523">
   <si>
     <t>buzzFort36</t>
   </si>
@@ -100,6 +100,9 @@
     <t>night</t>
   </si>
   <si>
+    <t>lifestyle</t>
+  </si>
+  <si>
     <t>skeleton</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>light</t>
   </si>
   <si>
+    <t>university</t>
+  </si>
+  <si>
     <t>card</t>
   </si>
   <si>
@@ -130,6 +136,9 @@
     <t>log</t>
   </si>
   <si>
+    <t>lesson</t>
+  </si>
+  <si>
     <t>mushroom</t>
   </si>
   <si>
@@ -145,6 +154,9 @@
     <t>manual</t>
   </si>
   <si>
+    <t>optimum</t>
+  </si>
+  <si>
     <t>nerve</t>
   </si>
   <si>
@@ -160,6 +172,9 @@
     <t>cabin</t>
   </si>
   <si>
+    <t>graduate</t>
+  </si>
+  <si>
     <t>quick</t>
   </si>
   <si>
@@ -175,6 +190,9 @@
     <t>cube</t>
   </si>
   <si>
+    <t>monopoly</t>
+  </si>
+  <si>
     <t>ace</t>
   </si>
   <si>
@@ -190,6 +208,9 @@
     <t>solid</t>
   </si>
   <si>
+    <t>markup</t>
+  </si>
+  <si>
     <t>palm</t>
   </si>
   <si>
@@ -205,6 +226,9 @@
     <t>team</t>
   </si>
   <si>
+    <t>season</t>
+  </si>
+  <si>
     <t>policy</t>
   </si>
   <si>
@@ -220,6 +244,9 @@
     <t>term</t>
   </si>
   <si>
+    <t>motor</t>
+  </si>
+  <si>
     <t>candle</t>
   </si>
   <si>
@@ -235,6 +262,9 @@
     <t>ideal</t>
   </si>
   <si>
+    <t>etiquette</t>
+  </si>
+  <si>
     <t>forehead</t>
   </si>
   <si>
@@ -250,6 +280,9 @@
     <t>mask</t>
   </si>
   <si>
+    <t>carnal</t>
+  </si>
+  <si>
     <t>foreign</t>
   </si>
   <si>
@@ -265,6 +298,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>instruction</t>
+  </si>
+  <si>
     <t>age</t>
   </si>
   <si>
@@ -280,6 +316,9 @@
     <t>tweet</t>
   </si>
   <si>
+    <t>lifespan</t>
+  </si>
+  <si>
     <t>retina</t>
   </si>
   <si>
@@ -295,6 +334,9 @@
     <t>jump</t>
   </si>
   <si>
+    <t>daemon</t>
+  </si>
+  <si>
     <t>orbit</t>
   </si>
   <si>
@@ -310,6 +352,9 @@
     <t>path</t>
   </si>
   <si>
+    <t>massive</t>
+  </si>
+  <si>
     <t>hook</t>
   </si>
   <si>
@@ -1042,6 +1087,9 @@
     <t>ground</t>
   </si>
   <si>
+    <t>timeline</t>
+  </si>
+  <si>
     <t>deodorant</t>
   </si>
   <si>
@@ -1057,6 +1105,9 @@
     <t>contrast</t>
   </si>
   <si>
+    <t>seize</t>
+  </si>
+  <si>
     <t>distinct</t>
   </si>
   <si>
@@ -1072,6 +1123,9 @@
     <t>distance</t>
   </si>
   <si>
+    <t>hormone</t>
+  </si>
+  <si>
     <t>texture</t>
   </si>
   <si>
@@ -1087,6 +1141,9 @@
     <t>nest</t>
   </si>
   <si>
+    <t>shrink</t>
+  </si>
+  <si>
     <t>thirst</t>
   </si>
   <si>
@@ -1102,6 +1159,9 @@
     <t>try</t>
   </si>
   <si>
+    <t>facade</t>
+  </si>
+  <si>
     <t>trust</t>
   </si>
   <si>
@@ -1117,6 +1177,9 @@
     <t>thrust</t>
   </si>
   <si>
+    <t>trigger</t>
+  </si>
+  <si>
     <t>native</t>
   </si>
   <si>
@@ -1132,6 +1195,9 @@
     <t>genus</t>
   </si>
   <si>
+    <t>exit</t>
+  </si>
+  <si>
     <t>wet</t>
   </si>
   <si>
@@ -1147,6 +1213,9 @@
     <t>sight</t>
   </si>
   <si>
+    <t>check</t>
+  </si>
+  <si>
     <t>set</t>
   </si>
   <si>
@@ -1162,6 +1231,9 @@
     <t>slide</t>
   </si>
   <si>
+    <t>fuse</t>
+  </si>
+  <si>
     <t>alien</t>
   </si>
   <si>
@@ -1177,6 +1249,9 @@
     <t>sphere</t>
   </si>
   <si>
+    <t>transport</t>
+  </si>
+  <si>
     <t>bent</t>
   </si>
   <si>
@@ -1192,6 +1267,9 @@
     <t>boat</t>
   </si>
   <si>
+    <t>understand</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
@@ -1207,6 +1285,9 @@
     <t>bit</t>
   </si>
   <si>
+    <t>dynamo</t>
+  </si>
+  <si>
     <t>raw</t>
   </si>
   <si>
@@ -1222,6 +1303,9 @@
     <t>scene</t>
   </si>
   <si>
+    <t>restroom</t>
+  </si>
+  <si>
     <t>vibrant</t>
   </si>
   <si>
@@ -1237,6 +1321,9 @@
     <t>support</t>
   </si>
   <si>
+    <t>underscore</t>
+  </si>
+  <si>
     <t>valve</t>
   </si>
   <si>
@@ -1271,9 +1358,6 @@
   </si>
   <si>
     <t>cookie</t>
-  </si>
-  <si>
-    <t>season</t>
   </si>
   <si>
     <t>carnival</t>
@@ -2562,59 +2646,65 @@
       <c r="B5" s="13">
         <v>1.0</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="D5" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="13">
         <v>1.0</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="K5" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P5" s="13">
         <v>1.0</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="R5" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W5" s="1"/>
     </row>
@@ -2623,59 +2713,65 @@
       <c r="B6" s="18">
         <v>2.0</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="D6" s="20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I6" s="18">
         <v>2.0</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="K6" s="20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P6" s="18">
         <v>2.0</v>
       </c>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="R6" s="20" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="W6" s="1"/>
     </row>
@@ -2684,59 +2780,65 @@
       <c r="B7" s="18">
         <v>3.0</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="D7" s="20" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I7" s="18">
         <v>3.0</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="K7" s="20" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P7" s="18">
         <v>3.0</v>
       </c>
-      <c r="Q7" s="19"/>
+      <c r="Q7" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="R7" s="20" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="T7" s="21" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="U7" s="21" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="V7" s="22" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="W7" s="1"/>
     </row>
@@ -2745,59 +2847,65 @@
       <c r="B8" s="18">
         <v>4.0</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="D8" s="20" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I8" s="18">
         <v>4.0</v>
       </c>
-      <c r="J8" s="19"/>
+      <c r="J8" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="K8" s="20" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="P8" s="18">
         <v>4.0</v>
       </c>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="R8" s="20" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="V8" s="22" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="W8" s="1"/>
     </row>
@@ -2806,59 +2914,65 @@
       <c r="B9" s="18">
         <v>5.0</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" s="20" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="I9" s="18">
         <v>5.0</v>
       </c>
-      <c r="J9" s="19"/>
+      <c r="J9" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="K9" s="20" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="P9" s="18">
         <v>5.0</v>
       </c>
-      <c r="Q9" s="19"/>
+      <c r="Q9" s="19" t="s">
+        <v>113</v>
+      </c>
       <c r="R9" s="20" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="V9" s="22" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="W9" s="1"/>
     </row>
@@ -2869,57 +2983,57 @@
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="20" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="I10" s="18">
         <v>6.0</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="20" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="P10" s="18">
         <v>6.0</v>
       </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="20" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="U10" s="21" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="V10" s="22" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="W10" s="1"/>
     </row>
@@ -2930,57 +3044,57 @@
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="20" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="I11" s="18">
         <v>7.0</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="20" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="P11" s="18">
         <v>7.0</v>
       </c>
       <c r="Q11" s="19"/>
       <c r="R11" s="20" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="V11" s="22" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="W11" s="1"/>
     </row>
@@ -2991,57 +3105,57 @@
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I12" s="18">
         <v>8.0</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="20" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="P12" s="18">
         <v>8.0</v>
       </c>
       <c r="Q12" s="19"/>
       <c r="R12" s="20" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="V12" s="22" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="W12" s="1"/>
     </row>
@@ -3052,57 +3166,57 @@
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="I13" s="18">
         <v>9.0</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="20" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="P13" s="18">
         <v>9.0</v>
       </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="20" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="V13" s="22" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="W13" s="1"/>
     </row>
@@ -3113,57 +3227,57 @@
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="I14" s="18">
         <v>10.0</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="20" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P14" s="18">
         <v>10.0</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="20" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="U14" s="21" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="V14" s="22" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="W14" s="1"/>
     </row>
@@ -3174,57 +3288,57 @@
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="I15" s="18">
         <v>11.0</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="20" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="P15" s="18">
         <v>11.0</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="20" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="V15" s="22" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="W15" s="1"/>
     </row>
@@ -3235,57 +3349,57 @@
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="I16" s="18">
         <v>12.0</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="20" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="P16" s="18">
         <v>12.0</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="20" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="V16" s="22" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="W16" s="1"/>
     </row>
@@ -3296,57 +3410,57 @@
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="20" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="I17" s="18">
         <v>13.0</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="20" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="P17" s="18">
         <v>13.0</v>
       </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="20" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="V17" s="22" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="W17" s="1"/>
     </row>
@@ -3357,57 +3471,57 @@
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="I18" s="18">
         <v>14.0</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="20" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="P18" s="18">
         <v>14.0</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="20" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="T18" s="21" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="V18" s="22" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="W18" s="1"/>
     </row>
@@ -3418,57 +3532,57 @@
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="I19" s="18">
         <v>15.0</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="20" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="P19" s="18">
         <v>15.0</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="20" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="U19" s="21" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="V19" s="22" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="W19" s="1"/>
     </row>
@@ -3479,57 +3593,57 @@
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="I20" s="18">
         <v>16.0</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="20" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="P20" s="18">
         <v>16.0</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="20" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="U20" s="21" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="V20" s="22" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="W20" s="1"/>
     </row>
@@ -3540,38 +3654,38 @@
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="I21" s="18">
         <v>17.0</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="20" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="P21" s="18">
         <v>17.0</v>
@@ -3581,16 +3695,16 @@
         <v>23</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="V21" s="22" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="W21" s="1"/>
     </row>
@@ -3601,57 +3715,57 @@
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="20" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="I22" s="18">
         <v>18.0</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="20" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="O22" s="22" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="P22" s="18">
         <v>18.0</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="V22" s="22" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="W22" s="1"/>
     </row>
@@ -3662,57 +3776,57 @@
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="20" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="I23" s="18">
         <v>19.0</v>
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="20" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="P23" s="18">
         <v>19.0</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="V23" s="22" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="W23" s="1"/>
     </row>
@@ -3723,57 +3837,57 @@
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="20" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="I24" s="18">
         <v>20.0</v>
       </c>
       <c r="J24" s="19"/>
       <c r="K24" s="20" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="P24" s="18">
         <v>20.0</v>
       </c>
       <c r="Q24" s="19"/>
       <c r="R24" s="20" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="V24" s="22" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="W24" s="1"/>
     </row>
@@ -3784,57 +3898,57 @@
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="20" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="I25" s="18">
         <v>21.0</v>
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="20" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="P25" s="18">
         <v>21.0</v>
       </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="20" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="W25" s="1"/>
     </row>
@@ -3843,59 +3957,65 @@
       <c r="B26" s="18">
         <v>22.0</v>
       </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="19" t="s">
+        <v>358</v>
+      </c>
       <c r="D26" s="20" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="I26" s="18">
         <v>22.0</v>
       </c>
-      <c r="J26" s="19"/>
+      <c r="J26" s="19" t="s">
+        <v>364</v>
+      </c>
       <c r="K26" s="20" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="P26" s="18">
         <v>22.0</v>
       </c>
-      <c r="Q26" s="19"/>
+      <c r="Q26" s="19" t="s">
+        <v>370</v>
+      </c>
       <c r="R26" s="20" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="T26" s="21" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="V26" s="22" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="W26" s="1"/>
     </row>
@@ -3904,59 +4024,65 @@
       <c r="B27" s="18">
         <v>23.0</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>376</v>
+      </c>
       <c r="D27" s="20" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="I27" s="18">
         <v>23.0</v>
       </c>
-      <c r="J27" s="19"/>
+      <c r="J27" s="19" t="s">
+        <v>382</v>
+      </c>
       <c r="K27" s="20" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="P27" s="18">
         <v>23.0</v>
       </c>
-      <c r="Q27" s="19"/>
+      <c r="Q27" s="19" t="s">
+        <v>388</v>
+      </c>
       <c r="R27" s="20" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="U27" s="21" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="V27" s="22" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="W27" s="1"/>
     </row>
@@ -3965,59 +4091,65 @@
       <c r="B28" s="18">
         <v>24.0</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="19" t="s">
+        <v>394</v>
+      </c>
       <c r="D28" s="20" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="I28" s="18">
         <v>24.0</v>
       </c>
-      <c r="J28" s="19"/>
+      <c r="J28" s="19" t="s">
+        <v>400</v>
+      </c>
       <c r="K28" s="20" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="P28" s="18">
         <v>24.0</v>
       </c>
-      <c r="Q28" s="19"/>
+      <c r="Q28" s="19" t="s">
+        <v>406</v>
+      </c>
       <c r="R28" s="20" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="U28" s="21" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="V28" s="22" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="W28" s="1"/>
     </row>
@@ -4026,59 +4158,65 @@
       <c r="B29" s="18">
         <v>25.0</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="19" t="s">
+        <v>412</v>
+      </c>
       <c r="D29" s="20" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="I29" s="18">
         <v>25.0</v>
       </c>
-      <c r="J29" s="19"/>
+      <c r="J29" s="19" t="s">
+        <v>418</v>
+      </c>
       <c r="K29" s="20" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="P29" s="18">
         <v>25.0</v>
       </c>
-      <c r="Q29" s="19"/>
+      <c r="Q29" s="19" t="s">
+        <v>424</v>
+      </c>
       <c r="R29" s="20" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="U29" s="21" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="V29" s="22" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="W29" s="1"/>
     </row>
@@ -4087,193 +4225,199 @@
       <c r="B30" s="23">
         <v>26.0</v>
       </c>
-      <c r="C30" s="24"/>
+      <c r="C30" s="24" t="s">
+        <v>430</v>
+      </c>
       <c r="D30" s="25" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="I30" s="23">
         <v>26.0</v>
       </c>
-      <c r="J30" s="24"/>
+      <c r="J30" s="24" t="s">
+        <v>436</v>
+      </c>
       <c r="K30" s="25" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="N30" s="26" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="P30" s="23">
         <v>26.0</v>
       </c>
-      <c r="Q30" s="24"/>
+      <c r="Q30" s="24" t="s">
+        <v>205</v>
+      </c>
       <c r="R30" s="25" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="S30" s="26" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="T30" s="26" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="U30" s="26" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="V30" s="27" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="W30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="28" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>420</v>
+        <v>71</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="R31" s="30" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="S31" s="31" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="T31" s="31" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="U31" s="31" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="V31" s="32" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="W31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="33" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="L32" s="34" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="O32" s="35" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="P32" s="33" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="Q32" s="34" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="R32" s="34" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="T32" s="34" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="U32" s="34" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="V32" s="35" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="W32" s="1"/>
     </row>
@@ -4305,7 +4449,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="37" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -4321,7 +4465,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="37" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
@@ -4363,7 +4507,7 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="40" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>4</v>
@@ -4381,7 +4525,7 @@
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="40" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="Q36" s="41" t="s">
         <v>4</v>
@@ -4396,10 +4540,10 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="D37" s="41" t="s">
         <v>5</v>
@@ -4416,10 +4560,10 @@
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="13" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="42" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="R37" s="41" t="s">
         <v>5</v>
@@ -4433,13 +4577,13 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="13" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>6</v>
@@ -4455,13 +4599,13 @@
       <c r="N38" s="36"/>
       <c r="O38" s="36"/>
       <c r="P38" s="13" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="Q38" s="43" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="R38" s="42" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="S38" s="41" t="s">
         <v>6</v>
@@ -4474,16 +4618,16 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="13" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="F39" s="41" t="s">
         <v>7</v>
@@ -4498,16 +4642,16 @@
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
       <c r="P39" s="13" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="Q39" s="43" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="R39" s="44" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="S39" s="42" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="T39" s="41" t="s">
         <v>7</v>
@@ -4519,19 +4663,19 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="13" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="G40" s="41" t="s">
         <v>8</v>
@@ -4545,19 +4689,19 @@
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
       <c r="P40" s="13" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="Q40" s="43" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="R40" s="44" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="S40" s="46" t="s">
         <v>16</v>
       </c>
       <c r="T40" s="46" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="U40" s="41" t="s">
         <v>8</v>
@@ -4568,22 +4712,22 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="13" t="s">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="H41" s="41" t="s">
         <v>9</v>
@@ -4596,22 +4740,22 @@
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
       <c r="P41" s="13" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="Q41" s="43" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="R41" s="44" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="S41" s="46" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="T41" s="46" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="U41" s="46" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="V41" s="41" t="s">
         <v>9</v>
@@ -4621,25 +4765,25 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="47" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="H42" s="51" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="I42" s="45"/>
       <c r="J42" s="36"/>
@@ -4649,50 +4793,50 @@
       <c r="N42" s="36"/>
       <c r="O42" s="36"/>
       <c r="P42" s="47" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="Q42" s="48" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="R42" s="49" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="S42" s="50" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="T42" s="45" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="U42" s="50" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="V42" s="51" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="W42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="33" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="H43" s="53" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
@@ -4702,25 +4846,25 @@
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
       <c r="P43" s="33" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="Q43" s="52" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="R43" s="52" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="S43" s="52" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="T43" s="52" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="U43" s="52" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="V43" s="53" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="W43" s="1"/>
     </row>

--- a/inspirationalYear70/inspirationalYear70.xlsx
+++ b/inspirationalYear70/inspirationalYear70.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="535">
   <si>
     <t>buzzFort36</t>
   </si>
@@ -370,6 +370,9 @@
     <t>change</t>
   </si>
   <si>
+    <t>tree</t>
+  </si>
+  <si>
     <t>skin</t>
   </si>
   <si>
@@ -385,6 +388,9 @@
     <t>serial</t>
   </si>
   <si>
+    <t>format</t>
+  </si>
+  <si>
     <t>spin</t>
   </si>
   <si>
@@ -400,6 +406,9 @@
     <t>shop</t>
   </si>
   <si>
+    <t>spare</t>
+  </si>
+  <si>
     <t>wall</t>
   </si>
   <si>
@@ -415,6 +424,9 @@
     <t>logo</t>
   </si>
   <si>
+    <t>meditate</t>
+  </si>
+  <si>
     <t>brow</t>
   </si>
   <si>
@@ -430,6 +442,9 @@
     <t>sign</t>
   </si>
   <si>
+    <t>speaker</t>
+  </si>
+  <si>
     <t>wave</t>
   </si>
   <si>
@@ -445,6 +460,9 @@
     <t>sine</t>
   </si>
   <si>
+    <t>piano</t>
+  </si>
+  <si>
     <t>query</t>
   </si>
   <si>
@@ -997,6 +1015,9 @@
     <t>filter</t>
   </si>
   <si>
+    <t>relax</t>
+  </si>
+  <si>
     <t>lift</t>
   </si>
   <si>
@@ -1012,6 +1033,9 @@
     <t>leap</t>
   </si>
   <si>
+    <t>sprinkle</t>
+  </si>
+  <si>
     <t>rent</t>
   </si>
   <si>
@@ -1027,6 +1051,9 @@
     <t>leak</t>
   </si>
   <si>
+    <t>arctic</t>
+  </si>
+  <si>
     <t>logic</t>
   </si>
   <si>
@@ -1042,6 +1069,9 @@
     <t>board</t>
   </si>
   <si>
+    <t>resume</t>
+  </si>
+  <si>
     <t>scent</t>
   </si>
   <si>
@@ -1057,6 +1087,9 @@
     <t>context</t>
   </si>
   <si>
+    <t>resign</t>
+  </si>
+  <si>
     <t>recent</t>
   </si>
   <si>
@@ -1070,6 +1103,9 @@
   </si>
   <si>
     <t>range</t>
+  </si>
+  <si>
+    <t>reverse</t>
   </si>
   <si>
     <t>balance</t>
@@ -2981,59 +3017,65 @@
       <c r="B10" s="18">
         <v>6.0</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I10" s="18">
         <v>6.0</v>
       </c>
-      <c r="J10" s="19"/>
+      <c r="J10" s="19" t="s">
+        <v>125</v>
+      </c>
       <c r="K10" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P10" s="18">
         <v>6.0</v>
       </c>
-      <c r="Q10" s="19"/>
+      <c r="Q10" s="19" t="s">
+        <v>131</v>
+      </c>
       <c r="R10" s="20" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="U10" s="21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="V10" s="22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="W10" s="1"/>
     </row>
@@ -3042,59 +3084,65 @@
       <c r="B11" s="18">
         <v>7.0</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="D11" s="20" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I11" s="18">
         <v>7.0</v>
       </c>
-      <c r="J11" s="19"/>
+      <c r="J11" s="19" t="s">
+        <v>143</v>
+      </c>
       <c r="K11" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P11" s="18">
         <v>7.0</v>
       </c>
-      <c r="Q11" s="19"/>
+      <c r="Q11" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="R11" s="20" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="V11" s="22" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="W11" s="1"/>
     </row>
@@ -3105,57 +3153,57 @@
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I12" s="18">
         <v>8.0</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="20" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="P12" s="18">
         <v>8.0</v>
       </c>
       <c r="Q12" s="19"/>
       <c r="R12" s="20" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="V12" s="22" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="W12" s="1"/>
     </row>
@@ -3166,57 +3214,57 @@
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="I13" s="18">
         <v>9.0</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="20" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P13" s="18">
         <v>9.0</v>
       </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="20" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="V13" s="22" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="W13" s="1"/>
     </row>
@@ -3227,57 +3275,57 @@
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="I14" s="18">
         <v>10.0</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="20" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P14" s="18">
         <v>10.0</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="20" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="U14" s="21" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="V14" s="22" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="W14" s="1"/>
     </row>
@@ -3288,57 +3336,57 @@
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I15" s="18">
         <v>11.0</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="20" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P15" s="18">
         <v>11.0</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="20" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="V15" s="22" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="W15" s="1"/>
     </row>
@@ -3349,57 +3397,57 @@
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="I16" s="18">
         <v>12.0</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="20" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P16" s="18">
         <v>12.0</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="20" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="V16" s="22" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="W16" s="1"/>
     </row>
@@ -3410,57 +3458,57 @@
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="20" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I17" s="18">
         <v>13.0</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="20" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P17" s="18">
         <v>13.0</v>
       </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="20" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="V17" s="22" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="W17" s="1"/>
     </row>
@@ -3471,57 +3519,57 @@
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="I18" s="18">
         <v>14.0</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="20" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P18" s="18">
         <v>14.0</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="20" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="T18" s="21" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="V18" s="22" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="W18" s="1"/>
     </row>
@@ -3532,57 +3580,57 @@
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I19" s="18">
         <v>15.0</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="20" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P19" s="18">
         <v>15.0</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="20" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="U19" s="21" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="V19" s="22" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="W19" s="1"/>
     </row>
@@ -3593,57 +3641,57 @@
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="I20" s="18">
         <v>16.0</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="20" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P20" s="18">
         <v>16.0</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="20" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="U20" s="21" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="V20" s="22" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="W20" s="1"/>
     </row>
@@ -3654,38 +3702,38 @@
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="I21" s="18">
         <v>17.0</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="20" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P21" s="18">
         <v>17.0</v>
@@ -3695,16 +3743,16 @@
         <v>23</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V21" s="22" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="W21" s="1"/>
     </row>
@@ -3715,57 +3763,57 @@
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="20" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="I22" s="18">
         <v>18.0</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="20" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="O22" s="22" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="P22" s="18">
         <v>18.0</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="V22" s="22" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="W22" s="1"/>
     </row>
@@ -3776,57 +3824,57 @@
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="20" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="I23" s="18">
         <v>19.0</v>
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="20" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="P23" s="18">
         <v>19.0</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="V23" s="22" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="W23" s="1"/>
     </row>
@@ -3835,59 +3883,65 @@
       <c r="B24" s="18">
         <v>20.0</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="D24" s="20" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="I24" s="18">
         <v>20.0</v>
       </c>
-      <c r="J24" s="19"/>
+      <c r="J24" s="19" t="s">
+        <v>340</v>
+      </c>
       <c r="K24" s="20" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="P24" s="18">
         <v>20.0</v>
       </c>
-      <c r="Q24" s="19"/>
+      <c r="Q24" s="19" t="s">
+        <v>346</v>
+      </c>
       <c r="R24" s="20" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="V24" s="22" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="W24" s="1"/>
     </row>
@@ -3896,59 +3950,65 @@
       <c r="B25" s="18">
         <v>21.0</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="19" t="s">
+        <v>352</v>
+      </c>
       <c r="D25" s="20" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="I25" s="18">
         <v>21.0</v>
       </c>
-      <c r="J25" s="19"/>
+      <c r="J25" s="19" t="s">
+        <v>358</v>
+      </c>
       <c r="K25" s="20" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="P25" s="18">
         <v>21.0</v>
       </c>
-      <c r="Q25" s="19"/>
+      <c r="Q25" s="19" t="s">
+        <v>364</v>
+      </c>
       <c r="R25" s="20" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="W25" s="1"/>
     </row>
@@ -3958,64 +4018,64 @@
         <v>22.0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="I26" s="18">
         <v>22.0</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="P26" s="18">
         <v>22.0</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="R26" s="20" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="T26" s="21" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="V26" s="22" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="W26" s="1"/>
     </row>
@@ -4025,64 +4085,64 @@
         <v>23.0</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="I27" s="18">
         <v>23.0</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="P27" s="18">
         <v>23.0</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="U27" s="21" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="V27" s="22" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="W27" s="1"/>
     </row>
@@ -4092,64 +4152,64 @@
         <v>24.0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="I28" s="18">
         <v>24.0</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="P28" s="18">
         <v>24.0</v>
       </c>
       <c r="Q28" s="19" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="R28" s="20" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="U28" s="21" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="V28" s="22" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="W28" s="1"/>
     </row>
@@ -4159,64 +4219,64 @@
         <v>25.0</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="I29" s="18">
         <v>25.0</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="P29" s="18">
         <v>25.0</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="R29" s="20" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="U29" s="21" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="V29" s="22" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="W29" s="1"/>
     </row>
@@ -4226,198 +4286,198 @@
         <v>26.0</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="I30" s="23">
         <v>26.0</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="N30" s="26" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="P30" s="23">
         <v>26.0</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="R30" s="25" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="S30" s="26" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="T30" s="26" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="U30" s="26" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="V30" s="27" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="W30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="28" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>71</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="R31" s="30" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="S31" s="31" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="T31" s="31" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="U31" s="31" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="V31" s="32" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="W31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="33" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="L32" s="34" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="O32" s="35" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="P32" s="33" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="Q32" s="34" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="R32" s="34" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="T32" s="34" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="U32" s="34" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="V32" s="35" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="W32" s="1"/>
     </row>
@@ -4449,7 +4509,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="37" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -4465,7 +4525,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="37" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
@@ -4507,7 +4567,7 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="40" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>4</v>
@@ -4525,7 +4585,7 @@
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="40" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="Q36" s="41" t="s">
         <v>4</v>
@@ -4540,10 +4600,10 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D37" s="41" t="s">
         <v>5</v>
@@ -4560,10 +4620,10 @@
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="13" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="42" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="R37" s="41" t="s">
         <v>5</v>
@@ -4577,13 +4637,13 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="13" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>6</v>
@@ -4599,13 +4659,13 @@
       <c r="N38" s="36"/>
       <c r="O38" s="36"/>
       <c r="P38" s="13" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="Q38" s="43" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="R38" s="42" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="S38" s="41" t="s">
         <v>6</v>
@@ -4618,16 +4678,16 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="13" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="F39" s="41" t="s">
         <v>7</v>
@@ -4642,16 +4702,16 @@
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
       <c r="P39" s="13" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="Q39" s="43" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="R39" s="44" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="S39" s="42" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="T39" s="41" t="s">
         <v>7</v>
@@ -4663,19 +4723,19 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="13" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="G40" s="41" t="s">
         <v>8</v>
@@ -4689,19 +4749,19 @@
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
       <c r="P40" s="13" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="Q40" s="43" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="R40" s="44" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="S40" s="46" t="s">
         <v>16</v>
       </c>
       <c r="T40" s="46" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="U40" s="41" t="s">
         <v>8</v>
@@ -4712,22 +4772,22 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="13" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="F41" s="46" t="s">
         <v>79</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="H41" s="41" t="s">
         <v>9</v>
@@ -4740,22 +4800,22 @@
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
       <c r="P41" s="13" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="Q41" s="43" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="R41" s="44" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="S41" s="46" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="T41" s="46" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="U41" s="46" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="V41" s="41" t="s">
         <v>9</v>
@@ -4765,25 +4825,25 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="47" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H42" s="51" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="I42" s="45"/>
       <c r="J42" s="36"/>
@@ -4793,50 +4853,50 @@
       <c r="N42" s="36"/>
       <c r="O42" s="36"/>
       <c r="P42" s="47" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="Q42" s="48" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="R42" s="49" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="S42" s="50" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="T42" s="45" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="U42" s="50" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="V42" s="51" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="W42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="33" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="H43" s="53" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
@@ -4846,25 +4906,25 @@
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
       <c r="P43" s="33" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="Q43" s="52" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="R43" s="52" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="S43" s="52" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="T43" s="52" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="U43" s="52" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="V43" s="53" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="W43" s="1"/>
     </row>

--- a/inspirationalYear70/inspirationalYear70.xlsx
+++ b/inspirationalYear70/inspirationalYear70.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="568">
   <si>
     <t>buzzFort36</t>
   </si>
@@ -478,6 +478,9 @@
     <t>shine</t>
   </si>
   <si>
+    <t>alcohol</t>
+  </si>
+  <si>
     <t>tooth</t>
   </si>
   <si>
@@ -493,6 +496,9 @@
     <t>thin</t>
   </si>
   <si>
+    <t>methane</t>
+  </si>
+  <si>
     <t>torque</t>
   </si>
   <si>
@@ -508,6 +514,9 @@
     <t>tiny</t>
   </si>
   <si>
+    <t>litmus</t>
+  </si>
+  <si>
     <t>essay</t>
   </si>
   <si>
@@ -523,6 +532,9 @@
     <t>bread</t>
   </si>
   <si>
+    <t>plankton</t>
+  </si>
+  <si>
     <t>spine</t>
   </si>
   <si>
@@ -538,6 +550,9 @@
     <t>lamp</t>
   </si>
   <si>
+    <t>syrup</t>
+  </si>
+  <si>
     <t>experience</t>
   </si>
   <si>
@@ -553,6 +568,9 @@
     <t>lean</t>
   </si>
   <si>
+    <t>beverage</t>
+  </si>
+  <si>
     <t>label</t>
   </si>
   <si>
@@ -568,6 +586,9 @@
     <t>shell</t>
   </si>
   <si>
+    <t>religion</t>
+  </si>
+  <si>
     <t>rib</t>
   </si>
   <si>
@@ -583,6 +604,9 @@
     <t>guide</t>
   </si>
   <si>
+    <t>doctrine</t>
+  </si>
+  <si>
     <t>vector</t>
   </si>
   <si>
@@ -598,6 +622,9 @@
     <t>big</t>
   </si>
   <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>blue</t>
   </si>
   <si>
@@ -613,6 +640,9 @@
     <t>green</t>
   </si>
   <si>
+    <t>technology</t>
+  </si>
+  <si>
     <t>nail</t>
   </si>
   <si>
@@ -628,6 +658,9 @@
     <t>same</t>
   </si>
   <si>
+    <t>maneuver</t>
+  </si>
+  <si>
     <t>fraction</t>
   </si>
   <si>
@@ -643,6 +676,9 @@
     <t>segment</t>
   </si>
   <si>
+    <t>operation</t>
+  </si>
+  <si>
     <t>multiplex</t>
   </si>
   <si>
@@ -658,6 +694,9 @@
     <t>screen</t>
   </si>
   <si>
+    <t>information</t>
+  </si>
+  <si>
     <t>hair</t>
   </si>
   <si>
@@ -673,6 +712,9 @@
     <t>symbol</t>
   </si>
   <si>
+    <t>evolve</t>
+  </si>
+  <si>
     <t>section</t>
   </si>
   <si>
@@ -688,6 +730,9 @@
     <t>sense</t>
   </si>
   <si>
+    <t>develop</t>
+  </si>
+  <si>
     <t>colour</t>
   </si>
   <si>
@@ -703,6 +748,9 @@
     <t>drum</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>mole</t>
   </si>
   <si>
@@ -718,6 +766,9 @@
     <t>land</t>
   </si>
   <si>
+    <t>approximate</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
@@ -733,6 +784,9 @@
     <t>laminate</t>
   </si>
   <si>
+    <t>temperature</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
@@ -748,6 +802,9 @@
     <t>version</t>
   </si>
   <si>
+    <t>sanction</t>
+  </si>
+  <si>
     <t>transparent</t>
   </si>
   <si>
@@ -763,6 +820,9 @@
     <t>street</t>
   </si>
   <si>
+    <t>fence</t>
+  </si>
+  <si>
     <t>solution</t>
   </si>
   <si>
@@ -778,6 +838,9 @@
     <t>simple</t>
   </si>
   <si>
+    <t>casual</t>
+  </si>
+  <si>
     <t>paragraph</t>
   </si>
   <si>
@@ -793,6 +856,9 @@
     <t>equation</t>
   </si>
   <si>
+    <t>monument</t>
+  </si>
+  <si>
     <t>appoint</t>
   </si>
   <si>
@@ -808,6 +874,9 @@
     <t>party</t>
   </si>
   <si>
+    <t>mortgage</t>
+  </si>
+  <si>
     <t>point</t>
   </si>
   <si>
@@ -823,6 +892,9 @@
     <t>parity</t>
   </si>
   <si>
+    <t>question</t>
+  </si>
+  <si>
     <t>align</t>
   </si>
   <si>
@@ -838,6 +910,9 @@
     <t>clutch</t>
   </si>
   <si>
+    <t>treaty</t>
+  </si>
+  <si>
     <t>weight</t>
   </si>
   <si>
@@ -853,6 +928,9 @@
     <t>male</t>
   </si>
   <si>
+    <t>climate</t>
+  </si>
+  <si>
     <t>make</t>
   </si>
   <si>
@@ -868,6 +946,9 @@
     <t>mean</t>
   </si>
   <si>
+    <t>detail</t>
+  </si>
+  <si>
     <t>device</t>
   </si>
   <si>
@@ -883,6 +964,9 @@
     <t>panel</t>
   </si>
   <si>
+    <t>emphasise</t>
+  </si>
+  <si>
     <t>mass</t>
   </si>
   <si>
@@ -898,6 +982,9 @@
     <t>main</t>
   </si>
   <si>
+    <t>reply</t>
+  </si>
+  <si>
     <t>matrix</t>
   </si>
   <si>
@@ -913,6 +1000,9 @@
     <t>mat</t>
   </si>
   <si>
+    <t>speech</t>
+  </si>
+  <si>
     <t>gear</t>
   </si>
   <si>
@@ -925,6 +1015,9 @@
     <t>powder</t>
   </si>
   <si>
+    <t>adventure</t>
+  </si>
+  <si>
     <t>disc</t>
   </si>
   <si>
@@ -940,6 +1033,9 @@
     <t>row</t>
   </si>
   <si>
+    <t>deep</t>
+  </si>
+  <si>
     <t>condition</t>
   </si>
   <si>
@@ -955,6 +1051,9 @@
     <t>short</t>
   </si>
   <si>
+    <t>parameter</t>
+  </si>
+  <si>
     <t>button</t>
   </si>
   <si>
@@ -970,6 +1069,9 @@
     <t>crust</t>
   </si>
   <si>
+    <t>zero</t>
+  </si>
+  <si>
     <t>guest</t>
   </si>
   <si>
@@ -985,6 +1087,9 @@
     <t>organ</t>
   </si>
   <si>
+    <t>pipe</t>
+  </si>
+  <si>
     <t>client</t>
   </si>
   <si>
@@ -1000,6 +1105,9 @@
     <t>due</t>
   </si>
   <si>
+    <t>curd</t>
+  </si>
+  <si>
     <t>vessel</t>
   </si>
   <si>
@@ -1411,9 +1519,6 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>adventure</t>
-  </si>
-  <si>
     <t>carrier</t>
   </si>
   <si>
@@ -1513,9 +1618,6 @@
     <t>closure</t>
   </si>
   <si>
-    <t>parameter</t>
-  </si>
-  <si>
     <t>argument</t>
   </si>
   <si>
@@ -1541,9 +1643,6 @@
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>information</t>
   </si>
   <si>
     <t>net</t>
@@ -1652,8 +1751,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -3151,59 +3250,65 @@
       <c r="B12" s="18">
         <v>8.0</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="D12" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I12" s="18">
         <v>8.0</v>
       </c>
-      <c r="J12" s="19"/>
+      <c r="J12" s="19" t="s">
+        <v>161</v>
+      </c>
       <c r="K12" s="20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P12" s="18">
         <v>8.0</v>
       </c>
-      <c r="Q12" s="19"/>
+      <c r="Q12" s="19" t="s">
+        <v>167</v>
+      </c>
       <c r="R12" s="20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="V12" s="22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="W12" s="1"/>
     </row>
@@ -3212,59 +3317,65 @@
       <c r="B13" s="18">
         <v>9.0</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="D13" s="20" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I13" s="18">
         <v>9.0</v>
       </c>
-      <c r="J13" s="19"/>
+      <c r="J13" s="19" t="s">
+        <v>179</v>
+      </c>
       <c r="K13" s="20" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P13" s="18">
         <v>9.0</v>
       </c>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="19" t="s">
+        <v>185</v>
+      </c>
       <c r="R13" s="20" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="V13" s="22" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="W13" s="1"/>
     </row>
@@ -3273,59 +3384,65 @@
       <c r="B14" s="18">
         <v>10.0</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>191</v>
+      </c>
       <c r="D14" s="20" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="I14" s="18">
         <v>10.0</v>
       </c>
-      <c r="J14" s="19"/>
+      <c r="J14" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="K14" s="20" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="P14" s="18">
         <v>10.0</v>
       </c>
-      <c r="Q14" s="19"/>
+      <c r="Q14" s="19" t="s">
+        <v>203</v>
+      </c>
       <c r="R14" s="20" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="U14" s="21" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="V14" s="22" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="W14" s="1"/>
     </row>
@@ -3334,59 +3451,65 @@
       <c r="B15" s="18">
         <v>11.0</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>209</v>
+      </c>
       <c r="D15" s="20" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="I15" s="18">
         <v>11.0</v>
       </c>
-      <c r="J15" s="19"/>
+      <c r="J15" s="19" t="s">
+        <v>215</v>
+      </c>
       <c r="K15" s="20" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="P15" s="18">
         <v>11.0</v>
       </c>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="19" t="s">
+        <v>221</v>
+      </c>
       <c r="R15" s="20" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="V15" s="22" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="W15" s="1"/>
     </row>
@@ -3395,59 +3518,65 @@
       <c r="B16" s="18">
         <v>12.0</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="19" t="s">
+        <v>227</v>
+      </c>
       <c r="D16" s="20" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="I16" s="18">
         <v>12.0</v>
       </c>
-      <c r="J16" s="19"/>
+      <c r="J16" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="K16" s="20" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="P16" s="18">
         <v>12.0</v>
       </c>
-      <c r="Q16" s="19"/>
+      <c r="Q16" s="19" t="s">
+        <v>239</v>
+      </c>
       <c r="R16" s="20" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="V16" s="22" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="W16" s="1"/>
     </row>
@@ -3456,59 +3585,65 @@
       <c r="B17" s="18">
         <v>13.0</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="19" t="s">
+        <v>245</v>
+      </c>
       <c r="D17" s="20" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="I17" s="18">
         <v>13.0</v>
       </c>
-      <c r="J17" s="19"/>
+      <c r="J17" s="19" t="s">
+        <v>251</v>
+      </c>
       <c r="K17" s="20" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="P17" s="18">
         <v>13.0</v>
       </c>
-      <c r="Q17" s="19"/>
+      <c r="Q17" s="19" t="s">
+        <v>257</v>
+      </c>
       <c r="R17" s="20" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="V17" s="22" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="W17" s="1"/>
     </row>
@@ -3517,59 +3652,65 @@
       <c r="B18" s="18">
         <v>14.0</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>263</v>
+      </c>
       <c r="D18" s="20" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="I18" s="18">
         <v>14.0</v>
       </c>
-      <c r="J18" s="19"/>
+      <c r="J18" s="19" t="s">
+        <v>269</v>
+      </c>
       <c r="K18" s="20" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="P18" s="18">
         <v>14.0</v>
       </c>
-      <c r="Q18" s="19"/>
+      <c r="Q18" s="19" t="s">
+        <v>275</v>
+      </c>
       <c r="R18" s="20" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="T18" s="21" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="V18" s="22" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="W18" s="1"/>
     </row>
@@ -3578,59 +3719,65 @@
       <c r="B19" s="18">
         <v>15.0</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>281</v>
+      </c>
       <c r="D19" s="20" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="I19" s="18">
         <v>15.0</v>
       </c>
-      <c r="J19" s="19"/>
+      <c r="J19" s="19" t="s">
+        <v>287</v>
+      </c>
       <c r="K19" s="20" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="P19" s="18">
         <v>15.0</v>
       </c>
-      <c r="Q19" s="19"/>
+      <c r="Q19" s="19" t="s">
+        <v>293</v>
+      </c>
       <c r="R19" s="20" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="U19" s="21" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="V19" s="22" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="W19" s="1"/>
     </row>
@@ -3639,59 +3786,65 @@
       <c r="B20" s="18">
         <v>16.0</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="19" t="s">
+        <v>299</v>
+      </c>
       <c r="D20" s="20" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="I20" s="18">
         <v>16.0</v>
       </c>
-      <c r="J20" s="19"/>
+      <c r="J20" s="19" t="s">
+        <v>305</v>
+      </c>
       <c r="K20" s="20" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="P20" s="18">
         <v>16.0</v>
       </c>
-      <c r="Q20" s="19"/>
+      <c r="Q20" s="19" t="s">
+        <v>311</v>
+      </c>
       <c r="R20" s="20" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="U20" s="21" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="V20" s="22" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="W20" s="1"/>
     </row>
@@ -3700,59 +3853,65 @@
       <c r="B21" s="18">
         <v>17.0</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="19" t="s">
+        <v>317</v>
+      </c>
       <c r="D21" s="20" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="I21" s="18">
         <v>17.0</v>
       </c>
-      <c r="J21" s="19"/>
+      <c r="J21" s="19" t="s">
+        <v>323</v>
+      </c>
       <c r="K21" s="20" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="P21" s="18">
         <v>17.0</v>
       </c>
-      <c r="Q21" s="19"/>
+      <c r="Q21" s="19" t="s">
+        <v>329</v>
+      </c>
       <c r="R21" s="20" t="s">
         <v>23</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="V21" s="22" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="W21" s="1"/>
     </row>
@@ -3761,59 +3920,65 @@
       <c r="B22" s="18">
         <v>18.0</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="D22" s="20" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="I22" s="18">
         <v>18.0</v>
       </c>
-      <c r="J22" s="19"/>
+      <c r="J22" s="19" t="s">
+        <v>340</v>
+      </c>
       <c r="K22" s="20" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="O22" s="22" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="P22" s="18">
         <v>18.0</v>
       </c>
-      <c r="Q22" s="19"/>
+      <c r="Q22" s="19" t="s">
+        <v>346</v>
+      </c>
       <c r="R22" s="20" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="V22" s="22" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="W22" s="1"/>
     </row>
@@ -3822,59 +3987,65 @@
       <c r="B23" s="18">
         <v>19.0</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>352</v>
+      </c>
       <c r="D23" s="20" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="I23" s="18">
         <v>19.0</v>
       </c>
-      <c r="J23" s="19"/>
+      <c r="J23" s="19" t="s">
+        <v>358</v>
+      </c>
       <c r="K23" s="20" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="P23" s="18">
         <v>19.0</v>
       </c>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="19" t="s">
+        <v>364</v>
+      </c>
       <c r="R23" s="20" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="V23" s="22" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="W23" s="1"/>
     </row>
@@ -3884,64 +4055,64 @@
         <v>20.0</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="I24" s="18">
         <v>20.0</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="P24" s="18">
         <v>20.0</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="R24" s="20" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="V24" s="22" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="W24" s="1"/>
     </row>
@@ -3951,64 +4122,64 @@
         <v>21.0</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="I25" s="18">
         <v>21.0</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="P25" s="18">
         <v>21.0</v>
       </c>
       <c r="Q25" s="19" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="R25" s="20" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="W25" s="1"/>
     </row>
@@ -4018,64 +4189,64 @@
         <v>22.0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="I26" s="18">
         <v>22.0</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="P26" s="18">
         <v>22.0</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="R26" s="20" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="T26" s="21" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="V26" s="22" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="W26" s="1"/>
     </row>
@@ -4085,64 +4256,64 @@
         <v>23.0</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="I27" s="18">
         <v>23.0</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="P27" s="18">
         <v>23.0</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="U27" s="21" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="V27" s="22" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="W27" s="1"/>
     </row>
@@ -4152,64 +4323,64 @@
         <v>24.0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="I28" s="18">
         <v>24.0</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="P28" s="18">
         <v>24.0</v>
       </c>
       <c r="Q28" s="19" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="R28" s="20" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="U28" s="21" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="V28" s="22" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="W28" s="1"/>
     </row>
@@ -4219,64 +4390,64 @@
         <v>25.0</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="I29" s="18">
         <v>25.0</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="P29" s="18">
         <v>25.0</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="R29" s="20" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="U29" s="21" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="V29" s="22" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="W29" s="1"/>
     </row>
@@ -4286,198 +4457,198 @@
         <v>26.0</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="I30" s="23">
         <v>26.0</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="N30" s="26" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="P30" s="23">
         <v>26.0</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="R30" s="25" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="S30" s="26" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="T30" s="26" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="U30" s="26" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="V30" s="27" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="W30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="28" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>71</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>466</v>
+        <v>334</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>467</v>
+        <v>502</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="R31" s="30" t="s">
-        <v>472</v>
+        <v>507</v>
       </c>
       <c r="S31" s="31" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="T31" s="31" t="s">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="U31" s="31" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="V31" s="32" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="W31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="33" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="L32" s="34" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="O32" s="35" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="P32" s="33" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="Q32" s="34" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="R32" s="34" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="T32" s="34" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="U32" s="34" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="V32" s="35" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="W32" s="1"/>
     </row>
@@ -4509,7 +4680,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="37" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -4525,7 +4696,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="37" t="s">
-        <v>485</v>
+        <v>520</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
@@ -4567,7 +4738,7 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="40" t="s">
-        <v>486</v>
+        <v>521</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>4</v>
@@ -4585,7 +4756,7 @@
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="40" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="Q36" s="41" t="s">
         <v>4</v>
@@ -4600,10 +4771,10 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="D37" s="41" t="s">
         <v>5</v>
@@ -4620,10 +4791,10 @@
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="13" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="Q37" s="42" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="R37" s="41" t="s">
         <v>5</v>
@@ -4637,13 +4808,13 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="13" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>6</v>
@@ -4659,13 +4830,13 @@
       <c r="N38" s="36"/>
       <c r="O38" s="36"/>
       <c r="P38" s="13" t="s">
-        <v>493</v>
+        <v>528</v>
       </c>
       <c r="Q38" s="43" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="R38" s="42" t="s">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="S38" s="41" t="s">
         <v>6</v>
@@ -4678,16 +4849,16 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="13" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>497</v>
+        <v>532</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="F39" s="41" t="s">
         <v>7</v>
@@ -4702,16 +4873,16 @@
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
       <c r="P39" s="13" t="s">
-        <v>500</v>
+        <v>346</v>
       </c>
       <c r="Q39" s="43" t="s">
-        <v>501</v>
+        <v>535</v>
       </c>
       <c r="R39" s="44" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c r="S39" s="42" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="T39" s="41" t="s">
         <v>7</v>
@@ -4723,19 +4894,19 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="13" t="s">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>505</v>
+        <v>539</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="G40" s="41" t="s">
         <v>8</v>
@@ -4749,19 +4920,19 @@
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
       <c r="P40" s="13" t="s">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="Q40" s="43" t="s">
-        <v>510</v>
+        <v>227</v>
       </c>
       <c r="R40" s="44" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="S40" s="46" t="s">
         <v>16</v>
       </c>
       <c r="T40" s="46" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="U40" s="41" t="s">
         <v>8</v>
@@ -4772,22 +4943,22 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="13" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="F41" s="46" t="s">
         <v>79</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="H41" s="41" t="s">
         <v>9</v>
@@ -4800,22 +4971,22 @@
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
       <c r="P41" s="13" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="Q41" s="43" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="R41" s="44" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="S41" s="46" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="T41" s="46" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="U41" s="46" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="V41" s="41" t="s">
         <v>9</v>
@@ -4825,25 +4996,25 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="47" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>526</v>
+        <v>559</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H42" s="51" t="s">
-        <v>527</v>
+        <v>560</v>
       </c>
       <c r="I42" s="45"/>
       <c r="J42" s="36"/>
@@ -4853,50 +5024,50 @@
       <c r="N42" s="36"/>
       <c r="O42" s="36"/>
       <c r="P42" s="47" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="Q42" s="48" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
       <c r="R42" s="49" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="S42" s="50" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="T42" s="45" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="U42" s="50" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
       <c r="V42" s="51" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="W42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="33" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="H43" s="53" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
@@ -4906,25 +5077,25 @@
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
       <c r="P43" s="33" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="Q43" s="52" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="R43" s="52" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="S43" s="52" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="T43" s="52" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="U43" s="52" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="V43" s="53" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="W43" s="1"/>
     </row>
